--- a/ANALYSIS RESULTS/confronto_con_software.xlsx
+++ b/ANALYSIS RESULTS/confronto_con_software.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="184">
   <si>
     <t>Stability_derivative</t>
   </si>
@@ -79,6 +79,411 @@
   </si>
   <si>
     <t>q</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta_e</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>delta_r</t>
+  </si>
+  <si>
+    <t>delta_a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta_e</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>delta_r</t>
+  </si>
+  <si>
+    <t>delta_a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta_e</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>delta_r</t>
+  </si>
+  <si>
+    <t>delta_a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta_e</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>delta_r</t>
+  </si>
+  <si>
+    <t>delta_a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta_e</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>delta_r</t>
+  </si>
+  <si>
+    <t>delta_a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
   <si>
     <t>Stability_derivative</t>
@@ -219,127 +624,127 @@
   <sheetData>
     <row r="2">
       <c r="C2" s="0" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" s="0" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="E3" s="0">
-        <v>-26.426640776699035</v>
+        <v>-100</v>
       </c>
       <c r="F3" s="0">
-        <v>-49.754174454828664</v>
+        <v>-51.757227414330217</v>
       </c>
       <c r="G3" s="0">
-        <v>-22.108743169398906</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" s="0" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="E4" s="0">
-        <v>-23.608306451612901</v>
+        <v>-100</v>
       </c>
       <c r="F4" s="0">
-        <v>-46.236966666666667</v>
+        <v>-48.380233333333329</v>
       </c>
       <c r="G4" s="0">
-        <v>-22.215006821282397</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="0" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="E5" s="0">
-        <v>396.082119205298</v>
+        <v>-100</v>
       </c>
       <c r="F5" s="0">
-        <v>-42.882774193548386</v>
+        <v>-43.101298387096776</v>
       </c>
       <c r="G5" s="0">
-        <v>34.98266233766234</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" s="0" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="E6" s="0">
-        <v>385.3676025917926</v>
+        <v>-100</v>
       </c>
       <c r="F6" s="0">
-        <v>-42.41840650406504</v>
+        <v>-42.63870731707317</v>
       </c>
       <c r="G6" s="0">
-        <v>28.316851851851858</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="0" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>46</v>
+        <v>181</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="0" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="E10" s="0">
         <v>-5.7230857142857037</v>
       </c>
       <c r="F10" s="0">
-        <v>-185.44241904761904</v>
+        <v>-270.88485714285713</v>
       </c>
       <c r="G10" s="0">
-        <v>-119.26265094339624</v>
+        <v>-138.5251320754717</v>
       </c>
       <c r="H10" s="0">
         <v>-53.094984025559114</v>
@@ -350,19 +755,19 @@
     </row>
     <row r="11">
       <c r="C11" s="0" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="E11" s="0">
         <v>7.1328571428571506</v>
       </c>
       <c r="F11" s="0">
-        <v>-158.56040469973891</v>
+        <v>-217.1208224543081</v>
       </c>
       <c r="G11" s="0">
-        <v>-95.013819291819289</v>
+        <v>-90.027682539682544</v>
       </c>
       <c r="H11" s="0">
         <v>-54.54715170278638</v>
@@ -373,19 +778,19 @@
     </row>
     <row r="12">
       <c r="C12" s="0" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="E12" s="0">
         <v>323.66123076923083</v>
       </c>
       <c r="F12" s="0">
-        <v>275.09178498985807</v>
+        <v>450.18367139959435</v>
       </c>
       <c r="G12" s="0">
-        <v>-141.90653741496598</v>
+        <v>-183.81306122448979</v>
       </c>
       <c r="H12" s="0">
         <v>2.4525441696113157</v>
@@ -396,19 +801,19 @@
     </row>
     <row r="13">
       <c r="C13" s="0" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="E13" s="0">
         <v>-20.410462427745664</v>
       </c>
       <c r="F13" s="0">
-        <v>-167.96870078740156</v>
+        <v>-235.93744094488193</v>
       </c>
       <c r="G13" s="0">
-        <v>-148.50599212598425</v>
+        <v>-197.011968503937</v>
       </c>
       <c r="H13" s="0">
         <v>6.5958455882352842</v>
@@ -419,19 +824,19 @@
     </row>
     <row r="14">
       <c r="C14" s="0" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="E14" s="0">
         <v>3.5462808842652813</v>
       </c>
       <c r="F14" s="0">
-        <v>-191.51829166666667</v>
+        <v>-283.03658333333328</v>
       </c>
       <c r="G14" s="0">
-        <v>-121.09199786324787</v>
+        <v>-142.18380341880342</v>
       </c>
       <c r="H14" s="0">
         <v>-92.759813905930471</v>
@@ -442,19 +847,19 @@
     </row>
     <row r="15">
       <c r="C15" s="0" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="E15" s="0">
         <v>-0.34156445556946335</v>
       </c>
       <c r="F15" s="0">
-        <v>-160.34173076923076</v>
+        <v>-220.68346153846156</v>
       </c>
       <c r="G15" s="0">
-        <v>-96.289077067669169</v>
+        <v>-92.578187969924812</v>
       </c>
       <c r="H15" s="0">
         <v>-91.137794743429296</v>

--- a/ANALYSIS RESULTS/confronto_con_software.xlsx
+++ b/ANALYSIS RESULTS/confronto_con_software.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="216">
   <si>
     <t>Stability_derivative</t>
   </si>
@@ -101,6 +101,330 @@
   </si>
   <si>
     <t>CZ</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta_e</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>delta_r</t>
+  </si>
+  <si>
+    <t>delta_a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta_e</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>delta_r</t>
+  </si>
+  <si>
+    <t>delta_a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta_e</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>delta_r</t>
+  </si>
+  <si>
+    <t>delta_a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta_e</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>delta_r</t>
+  </si>
+  <si>
+    <t>delta_a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
   <si>
     <t>Stability_derivative</t>
@@ -723,38 +1047,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.42578125" customWidth="true"/>
-    <col min="4" max="4" width="9.85546875" customWidth="true"/>
-    <col min="5" max="5" width="5.140625" customWidth="true"/>
-    <col min="6" max="6" width="7.42578125" customWidth="true"/>
-    <col min="7" max="7" width="7.7109375" customWidth="true"/>
-    <col min="8" max="8" width="3.85546875" customWidth="true"/>
-    <col min="9" max="9" width="3.85546875" customWidth="true"/>
+    <col min="3" max="3" width="16.6015625" customWidth="true"/>
+    <col min="4" max="4" width="8.93359375" customWidth="true"/>
+    <col min="5" max="5" width="4.82421875" customWidth="true"/>
+    <col min="6" max="6" width="6.93359375" customWidth="true"/>
+    <col min="7" max="7" width="7.26953125" customWidth="true"/>
+    <col min="8" max="8" width="3.82421875" customWidth="true"/>
+    <col min="9" max="9" width="3.82421875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="2" x14ac:dyDescent="0.25">
       <c r="C2" s="0" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>90</v>
+        <v>198</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>91</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.25">
       <c r="C3" s="0" t="s">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>85</v>
+        <v>193</v>
       </c>
       <c r="E3" s="0">
         <v>-100</v>
@@ -768,10 +1092,10 @@
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="C4" s="0" t="s">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="E4" s="0">
         <v>-100</v>
@@ -785,10 +1109,10 @@
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="C5" s="0" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="E5" s="0">
         <v>-100</v>
@@ -802,10 +1126,10 @@
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="C6" s="0" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="E6" s="0">
         <v>-100</v>
@@ -819,42 +1143,42 @@
     </row>
     <row r="9" x14ac:dyDescent="0.25">
       <c r="C9" s="0" t="s">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>105</v>
+        <v>213</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>106</v>
+        <v>214</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>107</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
       <c r="C10" s="0" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="E10" s="1">
         <v>-5.7230857142857037</v>
       </c>
       <c r="F10" s="1">
-        <v>-270.88485714285713</v>
+        <v>70.884857142857157</v>
       </c>
       <c r="G10" s="1">
-        <v>-138.5251320754717</v>
+        <v>-61.474867924528297</v>
       </c>
       <c r="H10" s="1">
         <v>-53.094984025559114</v>
@@ -865,19 +1189,19 @@
     </row>
     <row r="11" x14ac:dyDescent="0.25">
       <c r="C11" s="0" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="E11" s="1">
         <v>7.1328571428571506</v>
       </c>
       <c r="F11" s="1">
-        <v>-217.1208224543081</v>
+        <v>17.120822454308097</v>
       </c>
       <c r="G11" s="1">
-        <v>-90.027682539682544</v>
+        <v>-109.97231746031748</v>
       </c>
       <c r="H11" s="1">
         <v>-54.54715170278638</v>
@@ -888,19 +1212,19 @@
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="C12" s="0" t="s">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="E12" s="1">
         <v>323.66123076923083</v>
       </c>
       <c r="F12" s="1">
-        <v>450.18367139959435</v>
+        <v>-250.18367139959437</v>
       </c>
       <c r="G12" s="1">
-        <v>-183.81306122448979</v>
+        <v>-16.1869387755102</v>
       </c>
       <c r="H12" s="1">
         <v>2.4525441696113157</v>
@@ -911,19 +1235,19 @@
     </row>
     <row r="13" x14ac:dyDescent="0.25">
       <c r="C13" s="0" t="s">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="E13" s="1">
         <v>-20.410462427745664</v>
       </c>
       <c r="F13" s="1">
-        <v>-235.93744094488193</v>
+        <v>35.937440944881885</v>
       </c>
       <c r="G13" s="1">
-        <v>-197.011968503937</v>
+        <v>-2.9880314960629928</v>
       </c>
       <c r="H13" s="1">
         <v>6.5958455882352842</v>
@@ -934,19 +1258,19 @@
     </row>
     <row r="14" x14ac:dyDescent="0.25">
       <c r="C14" s="0" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="E14" s="1">
         <v>3.5462808842652813</v>
       </c>
       <c r="F14" s="1">
-        <v>-283.03658333333328</v>
+        <v>83.03658333333334</v>
       </c>
       <c r="G14" s="1">
-        <v>-142.18380341880342</v>
+        <v>-57.816196581196586</v>
       </c>
       <c r="H14" s="1">
         <v>-92.759813905930471</v>
@@ -957,19 +1281,19 @@
     </row>
     <row r="15" x14ac:dyDescent="0.25">
       <c r="C15" s="0" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c r="E15" s="1">
         <v>-0.34156445556946335</v>
       </c>
       <c r="F15" s="1">
-        <v>-220.68346153846156</v>
+        <v>20.683461538461533</v>
       </c>
       <c r="G15" s="1">
-        <v>-92.578187969924812</v>
+        <v>-107.42181203007519</v>
       </c>
       <c r="H15" s="1">
         <v>-91.137794743429296</v>

--- a/ANALYSIS RESULTS/confronto_con_software.xlsx
+++ b/ANALYSIS RESULTS/confronto_con_software.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="378">
   <si>
     <t>Stability_derivative</t>
   </si>
@@ -101,6 +101,492 @@
   </si>
   <si>
     <t>CZ</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta_e</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>delta_r</t>
+  </si>
+  <si>
+    <t>delta_a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta_e</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>delta_r</t>
+  </si>
+  <si>
+    <t>delta_a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta_e</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>delta_r</t>
+  </si>
+  <si>
+    <t>delta_a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta_e</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>delta_r</t>
+  </si>
+  <si>
+    <t>delta_a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta_e</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>delta_r</t>
+  </si>
+  <si>
+    <t>delta_a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta_e</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Stability_derivative</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>XFLR5</t>
+  </si>
+  <si>
+    <t>Open VSP</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>delta_r</t>
+  </si>
+  <si>
+    <t>delta_a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
   <si>
     <t>Stability_derivative</t>
@@ -1052,254 +1538,254 @@
     <col min="5" max="5" width="4.82421875" customWidth="true"/>
     <col min="6" max="6" width="6.93359375" customWidth="true"/>
     <col min="7" max="7" width="7.26953125" customWidth="true"/>
-    <col min="8" max="8" width="3.82421875" customWidth="true"/>
-    <col min="9" max="9" width="3.82421875" customWidth="true"/>
+    <col min="8" max="8" width="4.82421875" customWidth="true"/>
+    <col min="9" max="9" width="4.82421875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="2" x14ac:dyDescent="0.25">
       <c r="C2" s="0" t="s">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>192</v>
+        <v>354</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>197</v>
+        <v>359</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>198</v>
+        <v>360</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>199</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.25">
       <c r="C3" s="0" t="s">
-        <v>190</v>
+        <v>352</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>193</v>
+        <v>355</v>
       </c>
       <c r="E3" s="0">
-        <v>-100</v>
+        <v>0.4486990291262074</v>
       </c>
       <c r="F3" s="0">
-        <v>-51.757227414330217</v>
+        <v>-48.520872274143301</v>
       </c>
       <c r="G3" s="0">
-        <v>-100</v>
+        <v>-14.28983606557378</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="C4" s="0" t="s">
-        <v>190</v>
+        <v>352</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>194</v>
+        <v>356</v>
       </c>
       <c r="E4" s="0">
-        <v>-100</v>
+        <v>4.2965322580645182</v>
       </c>
       <c r="F4" s="0">
-        <v>-48.380233333333329</v>
+        <v>-44.917333333333332</v>
       </c>
       <c r="G4" s="0">
-        <v>-100</v>
+        <v>-14.406766712141888</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="C5" s="0" t="s">
-        <v>191</v>
+        <v>353</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>195</v>
+        <v>357</v>
       </c>
       <c r="E5" s="0">
-        <v>-100</v>
+        <v>-85.743183222958052</v>
       </c>
       <c r="F5" s="0">
-        <v>-43.101298387096776</v>
+        <v>-43.40175</v>
       </c>
       <c r="G5" s="0">
-        <v>-100</v>
+        <v>29.495194805194807</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="C6" s="0" t="s">
-        <v>191</v>
+        <v>353</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>196</v>
+        <v>358</v>
       </c>
       <c r="E6" s="0">
-        <v>-100</v>
+        <v>-86.051105831533476</v>
       </c>
       <c r="F6" s="0">
-        <v>-42.63870731707317</v>
+        <v>-42.941601626016258</v>
       </c>
       <c r="G6" s="0">
-        <v>-100</v>
+        <v>23.100370370370381</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
       <c r="C9" s="0" t="s">
-        <v>200</v>
+        <v>362</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>204</v>
+        <v>366</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>211</v>
+        <v>373</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>212</v>
+        <v>374</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>213</v>
+        <v>375</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>214</v>
+        <v>376</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>215</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
       <c r="C10" s="0" t="s">
-        <v>201</v>
+        <v>363</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>205</v>
+        <v>367</v>
       </c>
       <c r="E10" s="1">
-        <v>-5.7230857142857037</v>
+        <v>-100</v>
       </c>
       <c r="F10" s="1">
-        <v>70.884857142857157</v>
+        <v>-100</v>
       </c>
       <c r="G10" s="1">
-        <v>-61.474867924528297</v>
+        <v>-100</v>
       </c>
       <c r="H10" s="1">
-        <v>-53.094984025559114</v>
+        <v>-100</v>
       </c>
       <c r="I10" s="1">
-        <v>5.4696815286624174</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
       <c r="C11" s="0" t="s">
-        <v>201</v>
+        <v>363</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>206</v>
+        <v>368</v>
       </c>
       <c r="E11" s="1">
-        <v>7.1328571428571506</v>
+        <v>-100</v>
       </c>
       <c r="F11" s="1">
-        <v>17.120822454308097</v>
+        <v>-100</v>
       </c>
       <c r="G11" s="1">
-        <v>-109.97231746031748</v>
+        <v>-100</v>
       </c>
       <c r="H11" s="1">
-        <v>-54.54715170278638</v>
+        <v>-100</v>
       </c>
       <c r="I11" s="1">
-        <v>4.8021518987341736</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="C12" s="0" t="s">
-        <v>202</v>
+        <v>364</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>207</v>
+        <v>369</v>
       </c>
       <c r="E12" s="1">
-        <v>323.66123076923083</v>
+        <v>-100</v>
       </c>
       <c r="F12" s="1">
-        <v>-250.18367139959437</v>
+        <v>100</v>
       </c>
       <c r="G12" s="1">
-        <v>-16.1869387755102</v>
+        <v>-100</v>
       </c>
       <c r="H12" s="1">
-        <v>2.4525441696113157</v>
+        <v>-100</v>
       </c>
       <c r="I12" s="1">
-        <v>-96.793608092485556</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
       <c r="C13" s="0" t="s">
-        <v>202</v>
+        <v>364</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>208</v>
+        <v>370</v>
       </c>
       <c r="E13" s="1">
-        <v>-20.410462427745664</v>
+        <v>-100</v>
       </c>
       <c r="F13" s="1">
-        <v>35.937440944881885</v>
+        <v>-100</v>
       </c>
       <c r="G13" s="1">
-        <v>-2.9880314960629928</v>
+        <v>-100</v>
       </c>
       <c r="H13" s="1">
-        <v>6.5958455882352842</v>
+        <v>-100</v>
       </c>
       <c r="I13" s="1">
-        <v>-96.737024705882362</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
       <c r="C14" s="0" t="s">
-        <v>203</v>
+        <v>365</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>209</v>
+        <v>371</v>
       </c>
       <c r="E14" s="1">
-        <v>3.5462808842652813</v>
+        <v>-100</v>
       </c>
       <c r="F14" s="1">
-        <v>83.03658333333334</v>
+        <v>-100</v>
       </c>
       <c r="G14" s="1">
-        <v>-57.816196581196586</v>
+        <v>-100</v>
       </c>
       <c r="H14" s="1">
-        <v>-92.759813905930471</v>
+        <v>-100</v>
       </c>
       <c r="I14" s="1">
-        <v>18.112422451994103</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
       <c r="C15" s="0" t="s">
-        <v>203</v>
+        <v>365</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>210</v>
+        <v>372</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.34156445556946335</v>
+        <v>-100</v>
       </c>
       <c r="F15" s="1">
-        <v>20.683461538461533</v>
+        <v>-100</v>
       </c>
       <c r="G15" s="1">
-        <v>-107.42181203007519</v>
+        <v>-100</v>
       </c>
       <c r="H15" s="1">
-        <v>-91.137794743429296</v>
+        <v>-100</v>
       </c>
       <c r="I15" s="1">
-        <v>2.5155256410256448</v>
+        <v>-100</v>
       </c>
     </row>
   </sheetData>
